--- a/LOGS/d91d4c11-d5ab-49d6-80ca-d61fd850bb18/main_page_service_output/main_pages.xlsx
+++ b/LOGS/d91d4c11-d5ab-49d6-80ca-d61fd850bb18/main_page_service_output/main_pages.xlsx
@@ -178,19 +178,19 @@
     <t>19</t>
   </si>
   <si>
+    <t>assets</t>
+  </si>
+  <si>
     <t>equity_liabilities</t>
   </si>
   <si>
-    <t>assets</t>
+    <t>current</t>
+  </si>
+  <si>
+    <t>noncurrent</t>
   </si>
   <si>
     <t>equity</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>noncurrent</t>
   </si>
   <si>
     <t>Revenue from contracts with customers</t>
@@ -844,10 +844,10 @@
         <v>12198</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -864,10 +864,10 @@
         <v>1989157</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -884,10 +884,10 @@
         <v>1205</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -901,10 +901,10 @@
         <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -918,10 +918,10 @@
         <v>2724645</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -955,10 +955,10 @@
         <v>117895</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -972,10 +972,10 @@
         <v>4509</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -992,10 +992,10 @@
         <v>33658</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1012,10 +1012,10 @@
         <v>2995308</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1032,10 +1032,10 @@
         <v>34038</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1052,10 +1052,10 @@
         <v>16285</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1072,10 +1072,10 @@
         <v>44927</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1092,10 +1092,10 @@
         <v>41012</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1109,10 +1109,10 @@
         <v>3287632</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1126,10 +1126,10 @@
         <v>6012277</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1160,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1180,10 +1180,10 @@
         <v>366634</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1200,10 +1200,10 @@
         <v>7681</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1220,10 +1220,10 @@
         <v>20474</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1240,10 +1240,10 @@
         <v>6361</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1260,10 +1260,10 @@
         <v>1097565</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1277,10 +1277,10 @@
         <v>34122</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1297,10 +1297,10 @@
         <v>1018</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1351,10 +1351,10 @@
         <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1371,10 +1371,10 @@
         <v>49228</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1391,10 +1391,10 @@
         <v>1597</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1411,10 +1411,10 @@
         <v>59546</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1431,10 +1431,10 @@
         <v>3128681</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1451,10 +1451,10 @@
         <v>313</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1468,10 +1468,10 @@
         <v>3239431</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1485,10 +1485,10 @@
         <v>4773286</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1502,10 +1502,10 @@
         <v>1238991</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1539,10 +1539,10 @@
         <v>290000</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1556,10 +1556,10 @@
         <v>916385</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1576,10 +1576,10 @@
         <v>32606</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1593,10 +1593,10 @@
         <v>1238991</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
